--- a/Data/cleaned/excel/co2_emissions.xlsx
+++ b/Data/cleaned/excel/co2_emissions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>State</t>
   </si>
@@ -74,12 +74,6 @@
   </si>
   <si>
     <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
   </si>
   <si>
     <t>Alabama</t>
@@ -587,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W51"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,19 +648,13 @@
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>143.4498385715755</v>
@@ -725,19 +713,13 @@
       <c r="U2">
         <v>112.9223602687758</v>
       </c>
-      <c r="V2">
-        <v>-0.212809429461768</v>
-      </c>
-      <c r="W2">
-        <v>-30.52747830279971</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>44.56811154447783</v>
@@ -796,19 +778,13 @@
       <c r="U3">
         <v>34.97731267739316</v>
       </c>
-      <c r="V3">
-        <v>-0.2151941945647238</v>
-      </c>
-      <c r="W3">
-        <v>-9.590798867084672</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>86.71710184392488</v>
@@ -867,19 +843,13 @@
       <c r="U4">
         <v>93.57010725058366</v>
       </c>
-      <c r="V4">
-        <v>0.07902714990398274</v>
-      </c>
-      <c r="W4">
-        <v>6.853005406658781</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>64.02103613924078</v>
@@ -938,19 +908,13 @@
       <c r="U5">
         <v>70.88520228326099</v>
       </c>
-      <c r="V5">
-        <v>0.1072173547627562</v>
-      </c>
-      <c r="W5">
-        <v>6.864166144020217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>378.2935666737801</v>
@@ -1009,19 +973,13 @@
       <c r="U6">
         <v>355.5356932555403</v>
       </c>
-      <c r="V6">
-        <v>-0.06015929273749709</v>
-      </c>
-      <c r="W6">
-        <v>-22.7578734182398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>85.29587531542779</v>
@@ -1080,19 +1038,13 @@
       <c r="U7">
         <v>90.32161428516854</v>
       </c>
-      <c r="V7">
-        <v>0.05892124268794174</v>
-      </c>
-      <c r="W7">
-        <v>5.025738969740743</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>43.12794952025153</v>
@@ -1151,19 +1103,13 @@
       <c r="U8">
         <v>37.46434644450623</v>
       </c>
-      <c r="V8">
-        <v>-0.1313209447410859</v>
-      </c>
-      <c r="W8">
-        <v>-5.663603075745293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>16.05594081370114</v>
@@ -1222,19 +1168,13 @@
       <c r="U9">
         <v>13.25742608041864</v>
       </c>
-      <c r="V9">
-        <v>-0.1742977733758472</v>
-      </c>
-      <c r="W9">
-        <v>-2.798514733282497</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>241.1545410845096</v>
@@ -1293,19 +1233,13 @@
       <c r="U10">
         <v>242.4812594525848</v>
       </c>
-      <c r="V10">
-        <v>0.005501527618384072</v>
-      </c>
-      <c r="W10">
-        <v>1.326718368075149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>169.8335638018624</v>
@@ -1364,19 +1298,13 @@
       <c r="U11">
         <v>142.3950822037818</v>
       </c>
-      <c r="V11">
-        <v>-0.1615610070462395</v>
-      </c>
-      <c r="W11">
-        <v>-27.43848159808067</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>18.87936296135841</v>
@@ -1435,19 +1363,13 @@
       <c r="U12">
         <v>20.45784738551577</v>
       </c>
-      <c r="V12">
-        <v>0.08360898762252433</v>
-      </c>
-      <c r="W12">
-        <v>1.578484424157359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>15.73585158445029</v>
@@ -1506,19 +1428,13 @@
       <c r="U13">
         <v>18.91069757480707</v>
       </c>
-      <c r="V13">
-        <v>0.2017587655372952</v>
-      </c>
-      <c r="W13">
-        <v>3.174845990356781</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>233.6910278234907</v>
@@ -1577,19 +1493,13 @@
       <c r="U14">
         <v>211.52682174458</v>
       </c>
-      <c r="V14">
-        <v>-0.09484406091812647</v>
-      </c>
-      <c r="W14">
-        <v>-22.16420607891075</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>238.7839335854147</v>
@@ -1648,19 +1558,13 @@
       <c r="U15">
         <v>188.2537789982436</v>
       </c>
-      <c r="V15">
-        <v>-0.2116145497247036</v>
-      </c>
-      <c r="W15">
-        <v>-50.53015458717107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>79.78351728486176</v>
@@ -1719,19 +1623,13 @@
       <c r="U16">
         <v>82.56448904859273</v>
       </c>
-      <c r="V16">
-        <v>0.03485646983701773</v>
-      </c>
-      <c r="W16">
-        <v>2.780971763730975</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>76.16144356270857</v>
@@ -1790,19 +1688,13 @@
       <c r="U17">
         <v>62.07841523914878</v>
       </c>
-      <c r="V17">
-        <v>-0.1849102073802519</v>
-      </c>
-      <c r="W17">
-        <v>-14.08302832355979</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>145.0025478865017</v>
@@ -1861,19 +1753,13 @@
       <c r="U18">
         <v>120.8044492311435</v>
       </c>
-      <c r="V18">
-        <v>-0.1668805066397793</v>
-      </c>
-      <c r="W18">
-        <v>-24.19809865535825</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>225.5975681374337</v>
@@ -1932,19 +1818,13 @@
       <c r="U19">
         <v>198.6932866899713</v>
       </c>
-      <c r="V19">
-        <v>-0.1192578522436569</v>
-      </c>
-      <c r="W19">
-        <v>-26.90428144746241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>22.43881208088699</v>
@@ -2003,19 +1883,13 @@
       <c r="U20">
         <v>14.70948264660389</v>
       </c>
-      <c r="V20">
-        <v>-0.3444625056986335</v>
-      </c>
-      <c r="W20">
-        <v>-7.7293294342831</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>77.91188504982702</v>
@@ -2074,19 +1948,13 @@
       <c r="U21">
         <v>61.49068215931</v>
       </c>
-      <c r="V21">
-        <v>-0.2107663404628852</v>
-      </c>
-      <c r="W21">
-        <v>-16.42120289051702</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>82.85924156093404</v>
@@ -2145,19 +2013,13 @@
       <c r="U22">
         <v>64.36174033560636</v>
       </c>
-      <c r="V22">
-        <v>-0.2232400499553784</v>
-      </c>
-      <c r="W22">
-        <v>-18.49750122532768</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>195.2961344072037</v>
@@ -2216,19 +2078,13 @@
       <c r="U23">
         <v>163.6165659908049</v>
       </c>
-      <c r="V23">
-        <v>-0.1622129824154382</v>
-      </c>
-      <c r="W23">
-        <v>-31.67956841639878</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="1">
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>98.02281505324002</v>
@@ -2287,19 +2143,13 @@
       <c r="U24">
         <v>94.87850080170874</v>
       </c>
-      <c r="V24">
-        <v>-0.03207737147544154</v>
-      </c>
-      <c r="W24">
-        <v>-3.144314251531284</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="1">
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>61.52323473864267</v>
@@ -2358,19 +2208,13 @@
       <c r="U25">
         <v>63.15184323404928</v>
       </c>
-      <c r="V25">
-        <v>0.02647143802378271</v>
-      </c>
-      <c r="W25">
-        <v>1.62860849540661</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="1">
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>126.071549570518</v>
@@ -2429,19 +2273,13 @@
       <c r="U26">
         <v>124.3318610804955</v>
       </c>
-      <c r="V26">
-        <v>-0.01379921557202213</v>
-      </c>
-      <c r="W26">
-        <v>-1.739688490022445</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23">
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="1">
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>30.70330657124356</v>
@@ -2500,19 +2338,13 @@
       <c r="U27">
         <v>30.72095987742852</v>
       </c>
-      <c r="V27">
-        <v>0.0005749643330432708</v>
-      </c>
-      <c r="W27">
-        <v>0.01765330618496108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23">
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="1">
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>41.91548433774898</v>
@@ -2571,19 +2403,13 @@
       <c r="U28">
         <v>52.31373923177888</v>
       </c>
-      <c r="V28">
-        <v>0.2480766966747239</v>
-      </c>
-      <c r="W28">
-        <v>10.3982548940299</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23">
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="1">
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>45.69594057134982</v>
@@ -2642,19 +2468,13 @@
       <c r="U29">
         <v>40.91153856527162</v>
       </c>
-      <c r="V29">
-        <v>-0.1047008103183218</v>
-      </c>
-      <c r="W29">
-        <v>-4.784402006078203</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23">
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="1">
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>17.57902345951222</v>
@@ -2713,19 +2533,13 @@
       <c r="U30">
         <v>14.21751366935132</v>
       </c>
-      <c r="V30">
-        <v>-0.1912227831030027</v>
-      </c>
-      <c r="W30">
-        <v>-3.361509790160902</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23">
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="1">
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>122.803255292364</v>
@@ -2784,19 +2598,13 @@
       <c r="U31">
         <v>105.0769773146922</v>
       </c>
-      <c r="V31">
-        <v>-0.1443469713850005</v>
-      </c>
-      <c r="W31">
-        <v>-17.72627797767178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23">
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="1">
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>58.42407933545974</v>
@@ -2855,19 +2663,13 @@
       <c r="U32">
         <v>45.21244312651543</v>
       </c>
-      <c r="V32">
-        <v>-0.2261334086770227</v>
-      </c>
-      <c r="W32">
-        <v>-13.21163620894431</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23">
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="1">
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>212.5520820292261</v>
@@ -2926,19 +2728,13 @@
       <c r="U33">
         <v>175.3977739122918</v>
       </c>
-      <c r="V33">
-        <v>-0.1748009606032725</v>
-      </c>
-      <c r="W33">
-        <v>-37.15430811693432</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23">
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="1">
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>149.9454006609953</v>
@@ -2997,19 +2793,13 @@
       <c r="U34">
         <v>124.3616242819874</v>
       </c>
-      <c r="V34">
-        <v>-0.1706206143451449</v>
-      </c>
-      <c r="W34">
-        <v>-25.58377637900792</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23">
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="1">
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>51.41322632066218</v>
@@ -3068,19 +2858,13 @@
       <c r="U35">
         <v>58.89017977919199</v>
       </c>
-      <c r="V35">
-        <v>0.1454285987013606</v>
-      </c>
-      <c r="W35">
-        <v>7.476953458529806</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="1">
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>266.4087908394661</v>
@@ -3139,19 +2923,13 @@
       <c r="U36">
         <v>208.5094030668301</v>
       </c>
-      <c r="V36">
-        <v>-0.2173328725009127</v>
-      </c>
-      <c r="W36">
-        <v>-57.899387772636</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23">
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="1">
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>100.1761860925684</v>
@@ -3210,19 +2988,13 @@
       <c r="U37">
         <v>97.39707680159984</v>
       </c>
-      <c r="V37">
-        <v>-0.02774221498511176</v>
-      </c>
-      <c r="W37">
-        <v>-2.779109290968591</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="1">
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>41.11105127819356</v>
@@ -3281,19 +3053,13 @@
       <c r="U38">
         <v>39.74677113112856</v>
       </c>
-      <c r="V38">
-        <v>-0.0331852410640896</v>
-      </c>
-      <c r="W38">
-        <v>-1.364280147065003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="1">
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <v>277.4665398249746</v>
@@ -3352,19 +3118,13 @@
       <c r="U39">
         <v>219.8438386093885</v>
       </c>
-      <c r="V39">
-        <v>-0.2076744145507936</v>
-      </c>
-      <c r="W39">
-        <v>-57.62270121558606</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="1">
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>11.77640221731571</v>
@@ -3423,19 +3183,13 @@
       <c r="U40">
         <v>11.07146413966441</v>
       </c>
-      <c r="V40">
-        <v>-0.05986022425548398</v>
-      </c>
-      <c r="W40">
-        <v>-0.7049380776512972</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="1">
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>81.31028873337073</v>
@@ -3494,19 +3248,13 @@
       <c r="U41">
         <v>73.2023251362095</v>
       </c>
-      <c r="V41">
-        <v>-0.09971633016515935</v>
-      </c>
-      <c r="W41">
-        <v>-8.10796359716123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23">
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="1">
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>14.26331893845539</v>
@@ -3565,19 +3313,13 @@
       <c r="U42">
         <v>15.54762380343637</v>
       </c>
-      <c r="V42">
-        <v>0.09004249785920138</v>
-      </c>
-      <c r="W42">
-        <v>1.284304864980976</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="1">
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>127.9053362996093</v>
@@ -3636,19 +3378,13 @@
       <c r="U43">
         <v>94.37601400616424</v>
       </c>
-      <c r="V43">
-        <v>-0.2621416999749325</v>
-      </c>
-      <c r="W43">
-        <v>-33.52932229344502</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23">
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="1">
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <v>678.8074133890656</v>
@@ -3707,19 +3443,13 @@
       <c r="U44">
         <v>681.9073089019139</v>
       </c>
-      <c r="V44">
-        <v>0.00456667893087892</v>
-      </c>
-      <c r="W44">
-        <v>3.09989551284832</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" s="1">
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C45">
         <v>65.42102532999314</v>
@@ -3778,19 +3508,13 @@
       <c r="U45">
         <v>60.93435001742767</v>
       </c>
-      <c r="V45">
-        <v>-0.06858154989063581</v>
-      </c>
-      <c r="W45">
-        <v>-4.486675312565474</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" s="1">
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C46">
         <v>6.76838294976198</v>
@@ -3849,19 +3573,13 @@
       <c r="U46">
         <v>5.83065647035799</v>
       </c>
-      <c r="V46">
-        <v>-0.1385451275975699</v>
-      </c>
-      <c r="W46">
-        <v>-0.9377264794039899</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" s="1">
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C47">
         <v>123.6772676236169</v>
@@ -3920,19 +3638,13 @@
       <c r="U47">
         <v>107.44263876414</v>
       </c>
-      <c r="V47">
-        <v>-0.1312660699206525</v>
-      </c>
-      <c r="W47">
-        <v>-16.23462885947694</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" s="1">
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C48">
         <v>78.39814697860349</v>
@@ -3991,19 +3703,13 @@
       <c r="U48">
         <v>76.73065843917973</v>
       </c>
-      <c r="V48">
-        <v>-0.02126948918676419</v>
-      </c>
-      <c r="W48">
-        <v>-1.667488539423758</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23">
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" s="1">
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C49">
         <v>115.411988068844</v>
@@ -4062,19 +3768,13 @@
       <c r="U49">
         <v>89.74705853843047</v>
       </c>
-      <c r="V49">
-        <v>-0.2223766348700641</v>
-      </c>
-      <c r="W49">
-        <v>-25.66492953041352</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" s="1">
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C50">
         <v>108.4971018259338</v>
@@ -4133,19 +3833,13 @@
       <c r="U50">
         <v>101.6531162313871</v>
       </c>
-      <c r="V50">
-        <v>-0.06307989318946727</v>
-      </c>
-      <c r="W50">
-        <v>-6.843985594546652</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23">
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="1">
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C51">
         <v>63.54051829591118</v>
@@ -4203,12 +3897,6 @@
       </c>
       <c r="U51">
         <v>63.44285583738957</v>
-      </c>
-      <c r="V51">
-        <v>-0.001537010731747501</v>
-      </c>
-      <c r="W51">
-        <v>-0.09766245852161148</v>
       </c>
     </row>
   </sheetData>
